--- a/inputs/products.xlsx
+++ b/inputs/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fb\facebook-marketplace-autolisting-bot\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B516527-1583-4440-8FAE-11CA7B4CA4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E48AA7-FE83-47AE-9878-A39F9DD711E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>mail</t>
   </si>
@@ -42,15 +42,6 @@
     <t>proxy_password</t>
   </si>
   <si>
-    <t>sosegij242@vingood.com</t>
-  </si>
-  <si>
-    <t>abcde12345</t>
-  </si>
-  <si>
-    <t>mirnabilmahmud@gmail.com</t>
-  </si>
-  <si>
     <t>sku_id</t>
   </si>
   <si>
@@ -78,30 +69,12 @@
     <t>photos</t>
   </si>
   <si>
-    <t>EP217</t>
-  </si>
-  <si>
-    <t>6 pcs Wall Hook</t>
-  </si>
-  <si>
     <t>Miscellaneous</t>
   </si>
   <si>
     <t>New</t>
   </si>
   <si>
-    <t>hook; wall hook</t>
-  </si>
-  <si>
-    <t>TS4127</t>
-  </si>
-  <si>
-    <t>Men's Classic Full Sleeve Round Neck T-Shirt</t>
-  </si>
-  <si>
-    <t>Men's clothing &amp; shoes</t>
-  </si>
-  <si>
     <t>t-shit; full sleeve; round neck</t>
   </si>
   <si>
@@ -132,10 +105,22 @@
     <t>groups</t>
   </si>
   <si>
-    <t>2 - Copy.PNG</t>
-  </si>
-  <si>
     <t>watermark_font_size</t>
+  </si>
+  <si>
+    <t>demo product title 1</t>
+  </si>
+  <si>
+    <t>demo product title 2</t>
+  </si>
+  <si>
+    <t>1.png</t>
+  </si>
+  <si>
+    <t>selling group 1; selling group 2</t>
+  </si>
+  <si>
+    <t>selling group 3; selling group 4</t>
   </si>
 </sst>
 </file>
@@ -584,8 +569,8 @@
   </sheetPr>
   <dimension ref="A1:N126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -596,10 +581,10 @@
     <col min="4" max="4" width="29.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5546875" style="11" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" style="11" customWidth="1"/>
     <col min="11" max="12" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
@@ -608,100 +593,104 @@
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>12345</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="9">
+        <v>20</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="F2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="9">
-        <v>60</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>23</v>
+      <c r="A3" s="11">
+        <v>67890</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="9">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="9">
-        <v>380</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="I3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -1539,7 +1528,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1573,21 +1562,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1616,24 +1595,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>40</v>

--- a/inputs/products.xlsx
+++ b/inputs/products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fb\facebook-marketplace-autolisting-bot\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E48AA7-FE83-47AE-9878-A39F9DD711E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FDC954-8996-4ACF-B773-A5D5D5174BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>mail</t>
   </si>
@@ -69,18 +69,9 @@
     <t>photos</t>
   </si>
   <si>
-    <t>Miscellaneous</t>
-  </si>
-  <si>
     <t>New</t>
   </si>
   <si>
-    <t>t-shit; full sleeve; round neck</t>
-  </si>
-  <si>
-    <t>2.png</t>
-  </si>
-  <si>
     <t>watermark_text</t>
   </si>
   <si>
@@ -96,38 +87,42 @@
     <t>input_format</t>
   </si>
   <si>
-    <t>Contact for more details</t>
-  </si>
-  <si>
-    <t>Dhaka</t>
-  </si>
-  <si>
     <t>groups</t>
   </si>
   <si>
     <t>watermark_font_size</t>
   </si>
   <si>
-    <t>demo product title 1</t>
-  </si>
-  <si>
-    <t>demo product title 2</t>
-  </si>
-  <si>
-    <t>1.png</t>
-  </si>
-  <si>
-    <t>selling group 1; selling group 2</t>
-  </si>
-  <si>
-    <t>selling group 3; selling group 4</t>
+    <t>sosegij242@vingood.com</t>
+  </si>
+  <si>
+    <t>abcde12345</t>
+  </si>
+  <si>
+    <t>Valentine's Exclusive Couple Dress Kurt + panjabi red 🔥</t>
+  </si>
+  <si>
+    <t>Women's clothing &amp; shoes</t>
+  </si>
+  <si>
+    <t>Design: printed &amp; embroidery
+Fabric : 100% cotton
+Available : Size 40,42,44
+40 = Length 40" - Chest 42" 
+44 = Length 44" - Chest 46"</t>
+  </si>
+  <si>
+    <t>valentine; couple; panjabi; kurti</t>
+  </si>
+  <si>
+    <t>dress.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +183,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1B1B28"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -213,10 +223,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -247,9 +258,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -262,8 +270,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -569,24 +585,24 @@
   </sheetPr>
   <dimension ref="A1:N126"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.33203125" style="11" customWidth="1"/>
     <col min="11" max="12" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="11"/>
   </cols>
@@ -620,7 +636,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M1" s="5"/>
     </row>
@@ -628,33 +644,29 @@
       <c r="A2" s="11">
         <v>12345</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="9">
-        <v>20</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="H2" s="9"/>
       <c r="I2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -662,45 +674,62 @@
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
-        <v>67890</v>
-      </c>
-      <c r="B3" s="5" t="s">
+        <v>12346</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1200</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="9">
-        <v>30</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="9"/>
-      <c r="F4" s="8"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="9"/>
+      <c r="A4" s="11">
+        <v>12347</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1200</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="M4" s="5"/>
@@ -1528,7 +1557,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1562,7 +1591,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+      <c r="A2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1574,6 +1608,10 @@
       <c r="A6" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{140D8753-6ECC-498E-AD59-A3D2EC4B745C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1582,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1FF963-20D5-428E-91D9-21D279F48768}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1595,24 +1633,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>40</v>

--- a/inputs/products.xlsx
+++ b/inputs/products.xlsx
@@ -8,21 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fb\facebook-marketplace-autolisting-bot\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FDC954-8996-4ACF-B773-A5D5D5174BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E522900-7284-4DE5-9308-1C1A85D30CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
     <sheet name="accounts" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">settings!$A$1:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>mail</t>
   </si>
@@ -116,6 +119,12 @@
   </si>
   <si>
     <t>dress.jpg</t>
+  </si>
+  <si>
+    <t>posting_strategy</t>
+  </si>
+  <si>
+    <t>tabs</t>
   </si>
 </sst>
 </file>
@@ -585,7 +594,7 @@
   </sheetPr>
   <dimension ref="A1:N126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1618,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1FF963-20D5-428E-91D9-21D279F48768}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1629,9 +1638,10 @@
     <col min="1" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1644,8 +1654,11 @@
       <c r="D1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1655,8 +1668,16 @@
       <c r="D2">
         <v>40</v>
       </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{05CAD522-C20D-4656-A0FE-ABE6561497FA}">
+      <formula1>"sequential, tabs"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/inputs/products.xlsx
+++ b/inputs/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fb\facebook-marketplace-autolisting-bot\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FDC954-8996-4ACF-B773-A5D5D5174BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09D120D-161E-4EBB-B4E2-7791C8B7EF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>mail</t>
   </si>
@@ -69,9 +69,6 @@
     <t>photos</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>watermark_text</t>
   </si>
   <si>
@@ -91,31 +88,6 @@
   </si>
   <si>
     <t>watermark_font_size</t>
-  </si>
-  <si>
-    <t>sosegij242@vingood.com</t>
-  </si>
-  <si>
-    <t>abcde12345</t>
-  </si>
-  <si>
-    <t>Valentine's Exclusive Couple Dress Kurt + panjabi red 🔥</t>
-  </si>
-  <si>
-    <t>Women's clothing &amp; shoes</t>
-  </si>
-  <si>
-    <t>Design: printed &amp; embroidery
-Fabric : 100% cotton
-Available : Size 40,42,44
-40 = Length 40" - Chest 42" 
-44 = Length 44" - Chest 46"</t>
-  </si>
-  <si>
-    <t>valentine; couple; panjabi; kurti</t>
-  </si>
-  <si>
-    <t>dress.jpg</t>
   </si>
 </sst>
 </file>
@@ -585,8 +557,8 @@
   </sheetPr>
   <dimension ref="A1:N126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -636,36 +608,19 @@
         <v>14</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <v>12345</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1200</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="I2" s="10"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -673,31 +628,14 @@
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>12346</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1200</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="I3" s="10"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -705,31 +643,14 @@
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
-        <v>12347</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1200</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="I4" s="10"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="M4" s="5"/>
@@ -1591,12 +1512,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A2" s="16"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1609,9 +1525,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{140D8753-6ECC-498E-AD59-A3D2EC4B745C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1620,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1FF963-20D5-428E-91D9-21D279F48768}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1633,24 +1546,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>40</v>

--- a/inputs/products.xlsx
+++ b/inputs/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fb\facebook-marketplace-autolisting-bot\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E522900-7284-4DE5-9308-1C1A85D30CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B0EE93-1AEB-4CF4-8F0D-CB90E31503DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">settings!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">settings!$A$1:$C$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>mail</t>
   </si>
@@ -75,9 +75,6 @@
     <t>New</t>
   </si>
   <si>
-    <t>watermark_text</t>
-  </si>
-  <si>
     <t>trial</t>
   </si>
   <si>
@@ -91,15 +88,6 @@
   </si>
   <si>
     <t>groups</t>
-  </si>
-  <si>
-    <t>watermark_font_size</t>
-  </si>
-  <si>
-    <t>sosegij242@vingood.com</t>
-  </si>
-  <si>
-    <t>abcde12345</t>
   </si>
   <si>
     <t>Valentine's Exclusive Couple Dress Kurt + panjabi red 🔥</t>
@@ -595,7 +583,7 @@
   <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -606,7 +594,7 @@
     <col min="4" max="4" width="29.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5546875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="33.21875" style="11" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.88671875" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.33203125" style="11" customWidth="1"/>
@@ -645,35 +633,35 @@
         <v>14</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
-        <v>12345</v>
+        <v>1245</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="9">
         <v>1200</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -682,31 +670,14 @@
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>12346</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1200</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="I3" s="10"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -714,31 +685,14 @@
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
-        <v>12347</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1200</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="I4" s="10"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="M4" s="5"/>
@@ -1600,12 +1554,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A2" s="16"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1618,63 +1567,49 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{140D8753-6ECC-498E-AD59-A3D2EC4B745C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1FF963-20D5-428E-91D9-21D279F48768}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
+      <c r="C2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{05CAD522-C20D-4656-A0FE-ABE6561497FA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{05CAD522-C20D-4656-A0FE-ABE6561497FA}">
       <formula1>"sequential, tabs"</formula1>
     </dataValidation>
   </dataValidations>
